--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Serpine1-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Serpine1-Lrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.40492633333333</v>
+        <v>54.650772</v>
       </c>
       <c r="H2">
-        <v>91.21477899999999</v>
+        <v>163.952316</v>
       </c>
       <c r="I2">
-        <v>0.1967210800742636</v>
+        <v>0.3089913429651142</v>
       </c>
       <c r="J2">
-        <v>0.1967210800742636</v>
+        <v>0.3089913429651142</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,27 +564,27 @@
         <v>0.005891</v>
       </c>
       <c r="O2">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.05970514034322222</v>
+        <v>0.107315899284</v>
       </c>
       <c r="R2">
-        <v>0.5373462630889999</v>
+        <v>0.9658430935560001</v>
       </c>
       <c r="S2">
-        <v>0.01226838465311067</v>
+        <v>0.3089913429651142</v>
       </c>
       <c r="T2">
-        <v>0.01226838465311067</v>
+        <v>0.3089913429651142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.40492633333333</v>
+        <v>94.59157066666667</v>
       </c>
       <c r="H3">
-        <v>91.21477899999999</v>
+        <v>283.774712</v>
       </c>
       <c r="I3">
-        <v>0.1967210800742636</v>
+        <v>0.534813606173264</v>
       </c>
       <c r="J3">
-        <v>0.1967210800742636</v>
+        <v>0.5348136061732639</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,33 +620,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.02952333333333334</v>
+        <v>0.001963666666666667</v>
       </c>
       <c r="N3">
-        <v>0.08857000000000001</v>
+        <v>0.005891</v>
       </c>
       <c r="O3">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.8976547751144445</v>
+        <v>0.1857463142657778</v>
       </c>
       <c r="R3">
-        <v>8.07889297603</v>
+        <v>1.671716828392</v>
       </c>
       <c r="S3">
-        <v>0.184452695421153</v>
+        <v>0.534813606173264</v>
       </c>
       <c r="T3">
-        <v>0.1844526954211529</v>
+        <v>0.5348136061732639</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>94.59157066666667</v>
+        <v>5.807188</v>
       </c>
       <c r="H4">
-        <v>283.774712</v>
+        <v>17.421564</v>
       </c>
       <c r="I4">
-        <v>0.6120112163227749</v>
+        <v>0.0328334029567029</v>
       </c>
       <c r="J4">
-        <v>0.6120112163227748</v>
+        <v>0.03283340295670289</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,27 +688,27 @@
         <v>0.005891</v>
       </c>
       <c r="O4">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.1857463142657778</v>
+        <v>0.01140338150266667</v>
       </c>
       <c r="R4">
-        <v>1.671716828392</v>
+        <v>0.102630433524</v>
       </c>
       <c r="S4">
-        <v>0.03816768905005734</v>
+        <v>0.0328334029567029</v>
       </c>
       <c r="T4">
-        <v>0.03816768905005734</v>
+        <v>0.03283340295670289</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>94.59157066666667</v>
+        <v>15.46624066666667</v>
       </c>
       <c r="H5">
-        <v>283.774712</v>
+        <v>46.398722</v>
       </c>
       <c r="I5">
-        <v>0.6120112163227749</v>
+        <v>0.08744495821971184</v>
       </c>
       <c r="J5">
-        <v>0.6120112163227748</v>
+        <v>0.08744495821971182</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,33 +744,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02952333333333334</v>
+        <v>0.001963666666666667</v>
       </c>
       <c r="N5">
-        <v>0.08857000000000001</v>
+        <v>0.005891</v>
       </c>
       <c r="O5">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>2.792658471315556</v>
+        <v>0.03037054125577778</v>
       </c>
       <c r="R5">
-        <v>25.13392624184</v>
+        <v>0.273334871302</v>
       </c>
       <c r="S5">
-        <v>0.5738435272727176</v>
+        <v>0.08744495821971184</v>
       </c>
       <c r="T5">
-        <v>0.5738435272727175</v>
+        <v>0.08744495821971182</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.739929666666666</v>
+        <v>6.352523666666666</v>
       </c>
       <c r="H6">
-        <v>23.219789</v>
+        <v>19.057571</v>
       </c>
       <c r="I6">
-        <v>0.05007765212232225</v>
+        <v>0.0359166896852071</v>
       </c>
       <c r="J6">
-        <v>0.05007765212232225</v>
+        <v>0.03591668968520709</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,332 +812,22 @@
         <v>0.005891</v>
       </c>
       <c r="O6">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.01519864188877778</v>
+        <v>0.01247423897344445</v>
       </c>
       <c r="R6">
-        <v>0.136787776999</v>
+        <v>0.112268150761</v>
       </c>
       <c r="S6">
-        <v>0.003123060825659271</v>
+        <v>0.0359166896852071</v>
       </c>
       <c r="T6">
-        <v>0.003123060825659271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>7.739929666666666</v>
-      </c>
-      <c r="H7">
-        <v>23.219789</v>
-      </c>
-      <c r="I7">
-        <v>0.05007765212232225</v>
-      </c>
-      <c r="J7">
-        <v>0.05007765212232225</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N7">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P7">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q7">
-        <v>0.2285085235255556</v>
-      </c>
-      <c r="R7">
-        <v>2.05657671173</v>
-      </c>
-      <c r="S7">
-        <v>0.04695459129666298</v>
-      </c>
-      <c r="T7">
-        <v>0.04695459129666298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>16.74756533333333</v>
-      </c>
-      <c r="H8">
-        <v>50.242696</v>
-      </c>
-      <c r="I8">
-        <v>0.1083574123768132</v>
-      </c>
-      <c r="J8">
-        <v>0.1083574123768132</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.001963666666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.005891</v>
-      </c>
-      <c r="O8">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="P8">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="Q8">
-        <v>0.03288663579288889</v>
-      </c>
-      <c r="R8">
-        <v>0.295979722136</v>
-      </c>
-      <c r="S8">
-        <v>0.006757640892133333</v>
-      </c>
-      <c r="T8">
-        <v>0.006757640892133332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>16.74756533333333</v>
-      </c>
-      <c r="H9">
-        <v>50.242696</v>
-      </c>
-      <c r="I9">
-        <v>0.1083574123768132</v>
-      </c>
-      <c r="J9">
-        <v>0.1083574123768132</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N9">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P9">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q9">
-        <v>0.4944439538577778</v>
-      </c>
-      <c r="R9">
-        <v>4.449995584720001</v>
-      </c>
-      <c r="S9">
-        <v>0.1015997714846799</v>
-      </c>
-      <c r="T9">
-        <v>0.1015997714846799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>5.074565333333333</v>
-      </c>
-      <c r="H10">
-        <v>15.223696</v>
-      </c>
-      <c r="I10">
-        <v>0.032832639103826</v>
-      </c>
-      <c r="J10">
-        <v>0.03283263910382599</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.001963666666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.005891</v>
-      </c>
-      <c r="O10">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="P10">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="Q10">
-        <v>0.009964754792888888</v>
-      </c>
-      <c r="R10">
-        <v>0.08968279313599999</v>
-      </c>
-      <c r="S10">
-        <v>0.002047586590874953</v>
-      </c>
-      <c r="T10">
-        <v>0.002047586590874953</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>5.074565333333333</v>
-      </c>
-      <c r="H11">
-        <v>15.223696</v>
-      </c>
-      <c r="I11">
-        <v>0.032832639103826</v>
-      </c>
-      <c r="J11">
-        <v>0.03283263910382599</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N11">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O11">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P11">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q11">
-        <v>0.1498180838577778</v>
-      </c>
-      <c r="R11">
-        <v>1.34836275472</v>
-      </c>
-      <c r="S11">
-        <v>0.03078505251295105</v>
-      </c>
-      <c r="T11">
-        <v>0.03078505251295104</v>
+        <v>0.03591668968520709</v>
       </c>
     </row>
   </sheetData>
